--- a/output/missing-values-own_house.xlsx
+++ b/output/missing-values-own_house.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -101,6 +104,12 @@
     <t xml:space="preserve">TSH0043</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0100</t>
   </si>
   <si>
@@ -116,6 +125,18 @@
     <t xml:space="preserve">TSH0201</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0426</t>
   </si>
   <si>
@@ -128,21 +149,36 @@
     <t xml:space="preserve">TSH0458</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0727</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0801</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0812</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0871</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0873</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0907</t>
   </si>
   <si>
@@ -152,9 +188,15 @@
     <t xml:space="preserve">TSH0917</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0937</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1008</t>
   </si>
   <si>
@@ -224,6 +266,9 @@
     <t xml:space="preserve">TSH1316</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1346</t>
   </si>
   <si>
@@ -287,12 +332,6 @@
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1822</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSH1916</t>
   </si>
   <si>
@@ -300,6 +339,12 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1956</t>
   </si>
 </sst>
 </file>
@@ -797,7 +842,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -821,7 +866,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -833,7 +878,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -1250,6 +1295,96 @@
         <v>95</v>
       </c>
       <c r="B103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
